--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Rankings/estadisticos_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Rankings/estadisticos_General.xlsx
@@ -49,16 +49,16 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>MCPS</t>
+  </si>
+  <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>MCPS</t>
-  </si>
-  <si>
-    <t>DeepAR</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
   </si>
   <si>
     <t>EnCQR-LSTM</t>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5777560363502648</v>
+        <v>0.5726349796273064</v>
       </c>
       <c r="C2">
-        <v>0.5105385349855409</v>
+        <v>0.5097052443278516</v>
       </c>
       <c r="D2">
-        <v>0.3186646437356709</v>
+        <v>0.3160929465655638</v>
       </c>
       <c r="E2">
-        <v>0.551555715018926</v>
+        <v>0.5519972719293007</v>
       </c>
       <c r="F2">
-        <v>0.2082366093486816</v>
+        <v>0.2085533403788042</v>
       </c>
       <c r="G2">
-        <v>3.349188910469255</v>
+        <v>5.151485553912396</v>
       </c>
       <c r="H2">
-        <v>0.3542858920738333</v>
+        <v>0.3517171695312603</v>
       </c>
       <c r="I2">
-        <v>0.8654082473097839</v>
+        <v>0.8529586679029394</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.7883862278262983</v>
+        <v>0.8282157915461154</v>
       </c>
       <c r="C3">
-        <v>0.6096860125416357</v>
+        <v>0.6088755219369266</v>
       </c>
       <c r="D3">
-        <v>0.5788275314456836</v>
+        <v>0.6954894832260395</v>
       </c>
       <c r="E3">
-        <v>0.734192849920273</v>
+        <v>0.8397442916751177</v>
       </c>
       <c r="F3">
-        <v>0.2168609859330944</v>
+        <v>0.2132438905832505</v>
       </c>
       <c r="G3">
-        <v>6.51111291697073</v>
+        <v>10.487915667169</v>
       </c>
       <c r="H3">
-        <v>0.4035735106193231</v>
+        <v>0.40948607424181</v>
       </c>
       <c r="I3">
-        <v>1.001373902829066</v>
+        <v>1.019383325053203</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1.187061053241883</v>
+        <v>0.8322747775657097</v>
       </c>
       <c r="C4">
-        <v>0.6404197219849468</v>
+        <v>0.6101000255463755</v>
       </c>
       <c r="D4">
-        <v>2.050844475340179</v>
+        <v>0.6950896641838348</v>
       </c>
       <c r="E4">
-        <v>1.727665539813045</v>
+        <v>0.8351684839193101</v>
       </c>
       <c r="F4">
-        <v>0.2360707387864231</v>
+        <v>0.2151422336515786</v>
       </c>
       <c r="G4">
-        <v>24.23446688790245</v>
+        <v>10.44156728400139</v>
       </c>
       <c r="H4">
-        <v>0.4232378091497592</v>
+        <v>0.4135112261411266</v>
       </c>
       <c r="I4">
-        <v>1.108230520016653</v>
+        <v>1.026614415142849</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.255011094666094</v>
+        <v>1.497911852313694</v>
       </c>
       <c r="C5">
-        <v>0.6669969447590889</v>
+        <v>0.6906384767030308</v>
       </c>
       <c r="D5">
-        <v>2.318952140834706</v>
+        <v>2.729982520683068</v>
       </c>
       <c r="E5">
-        <v>1.847754295312968</v>
+        <v>1.822525482034408</v>
       </c>
       <c r="F5">
-        <v>0.2341623774278025</v>
+        <v>0.219968296502469</v>
       </c>
       <c r="G5">
-        <v>26.20497143481311</v>
+        <v>34.75363632371462</v>
       </c>
       <c r="H5">
-        <v>0.4271529951143367</v>
+        <v>0.4448136745486138</v>
       </c>
       <c r="I5">
-        <v>1.128294851985207</v>
+        <v>1.221601536658789</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.313617359090749</v>
+        <v>1.575631216401205</v>
       </c>
       <c r="C6">
-        <v>0.562552526212742</v>
+        <v>0.5705228615738995</v>
       </c>
       <c r="D6">
-        <v>3.806922314369829</v>
+        <v>5.329833510751437</v>
       </c>
       <c r="E6">
-        <v>2.898045072276511</v>
+        <v>3.382665597934114</v>
       </c>
       <c r="F6">
-        <v>0.2202050873342533</v>
+        <v>0.2172030017787396</v>
       </c>
       <c r="G6">
-        <v>41.67291199046596</v>
+        <v>80.06770928166762</v>
       </c>
       <c r="H6">
-        <v>0.3879422473268682</v>
+        <v>0.3892834189771081</v>
       </c>
       <c r="I6">
-        <v>0.9738284928882321</v>
+        <v>1.003865556905911</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.397661323590862</v>
+        <v>1.695747575946762</v>
       </c>
       <c r="C7">
-        <v>0.7667471037180311</v>
+        <v>0.6795125819896133</v>
       </c>
       <c r="D7">
-        <v>2.249949175276146</v>
+        <v>3.696172346544917</v>
       </c>
       <c r="E7">
-        <v>1.609795690343346</v>
+        <v>2.179671313686701</v>
       </c>
       <c r="F7">
-        <v>0.2271320449503537</v>
+        <v>0.2204823947260793</v>
       </c>
       <c r="G7">
-        <v>25.32917133400027</v>
+        <v>48.35142599002393</v>
       </c>
       <c r="H7">
-        <v>0.4454742199272507</v>
+        <v>0.4388068470069413</v>
       </c>
       <c r="I7">
-        <v>1.284028721607868</v>
+        <v>1.23977915750628</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1.953213036957726</v>
+        <v>1.918298195058024</v>
       </c>
       <c r="C8">
-        <v>1.233793048682094</v>
+        <v>0.9059910349240923</v>
       </c>
       <c r="D8">
-        <v>2.037416384683272</v>
+        <v>3.74865203632855</v>
       </c>
       <c r="E8">
-        <v>1.043110170847876</v>
+        <v>1.954155014056697</v>
       </c>
       <c r="F8">
-        <v>0.3071467384467538</v>
+        <v>0.2172411119999908</v>
       </c>
       <c r="G8">
-        <v>14.39623864585392</v>
+        <v>49.99780067805718</v>
       </c>
       <c r="H8">
-        <v>0.6473855093040262</v>
+        <v>0.4887798010529625</v>
       </c>
       <c r="I8">
-        <v>2.208756085311955</v>
+        <v>1.699873232307866</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>3.247876995903164</v>
+        <v>4.103986298999253</v>
       </c>
       <c r="C9">
-        <v>0.9905242354236379</v>
+        <v>0.9919090418224694</v>
       </c>
       <c r="D9">
-        <v>7.269941162713378</v>
+        <v>10.21895260629329</v>
       </c>
       <c r="E9">
-        <v>2.238367146256956</v>
+        <v>2.490006511177964</v>
       </c>
       <c r="F9">
-        <v>0.2318685563517967</v>
+        <v>0.2160962634594784</v>
       </c>
       <c r="G9">
-        <v>59.96674225396534</v>
+        <v>103.6093635637826</v>
       </c>
       <c r="H9">
-        <v>0.5168062413857437</v>
+        <v>0.4950555656351294</v>
       </c>
       <c r="I9">
-        <v>2.203359161255271</v>
+        <v>2.876593478674938</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>3.453850846367811</v>
+        <v>4.40921118037155</v>
       </c>
       <c r="C10">
-        <v>0.9710753327479186</v>
+        <v>0.9741599159621881</v>
       </c>
       <c r="D10">
-        <v>7.812994335466833</v>
+        <v>10.90702035044825</v>
       </c>
       <c r="E10">
-        <v>2.26211109946547</v>
+        <v>2.473689715521666</v>
       </c>
       <c r="F10">
-        <v>0.2135499504519238</v>
+        <v>0.2173839969138875</v>
       </c>
       <c r="G10">
-        <v>65.8636076566119</v>
+        <v>109.6820823033828</v>
       </c>
       <c r="H10">
-        <v>0.4917057667317563</v>
+        <v>0.4734214919977474</v>
       </c>
       <c r="I10">
-        <v>2.43208584453292</v>
+        <v>3.398889603885526</v>
       </c>
     </row>
   </sheetData>
